--- a/input/231115 - Participación_rec.xlsx
+++ b/input/231115 - Participación_rec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledadaraya/Documents/GitHub/datos_municipales/input/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledad/Documents/GitHub/datos_municipales/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEACAB7D-8ACE-6943-9829-F61362F75227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7EB7A17-0920-A248-AA4E-937D4031F514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="1700" windowWidth="20820" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11420" yWindow="1220" windowWidth="16140" windowHeight="15520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6260,14 +6260,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2733"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2606" zoomScale="113" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="11.6640625" customWidth="1"/>
     <col min="3" max="3" width="25.33203125" customWidth="1"/>
+    <col min="6" max="6" width="28.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.2">
@@ -6582,7 +6583,7 @@
         <v>2012</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G15">
         <v>0</v>
